--- a/AutoLoader/Contents/Support/连线回路配置表.xlsx
+++ b/AutoLoader/Contents/Support/连线回路配置表.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="火灾报警自动报警" sheetId="1" r:id="rId1"/>
+    <sheet name="火灾自动报警" sheetId="1" r:id="rId1"/>
     <sheet name="照明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>连线内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,115 +34,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总线+DC24V电源线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可燃气体探测系统布线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动控制线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防电话总线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防联动控制线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防广播线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火门监控系统布线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防电源监控系统布线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气火灾监控系统布线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-FAS-WIRE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-FAS-WIRE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-FAS-WIRE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-FAS-WIRE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-CTRL-WIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-BRST-WIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-FDS-WIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-PMFE-WIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-EFPS-WIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连线内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-LITE-WIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-LITE-WIRE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时照明布线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防应急照明布线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点位上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-FAS-WIRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>火灾报警总线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总线+DC24V电源线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可燃气体探测系统布线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动控制线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防电话总线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防联动控制线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防广播线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防火门监控系统布线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防电源监控系统布线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电气火灾监控系统布线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-FAS-WIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-FAS-WIRE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-FAS-WIRE3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-FAS-WIRE4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-FAS-WIRE5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-CTRL-WIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-BRST-WIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-FDS-WIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-PMFE-WIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-EFPS-WIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连线内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-LITE-WIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-LITE-WIRE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平时照明布线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消防应急照明布线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点位上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,10 +493,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>32</v>
@@ -508,10 +504,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>32</v>
@@ -519,21 +515,19 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -541,21 +535,19 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -563,47 +555,39 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -616,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,21 +613,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -651,10 +635,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>25</v>
